--- a/2024-11-12/4.Bad-RS3 Bad-RS6.xlsx
+++ b/2024-11-12/4.Bad-RS3 Bad-RS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="196">
   <si>
     <t>Symbol</t>
   </si>
@@ -109,6 +109,9 @@
     <t>LXCHEM</t>
   </si>
   <si>
+    <t>ANDHRSUGAR</t>
+  </si>
+  <si>
     <t>KSCL</t>
   </si>
   <si>
@@ -121,12 +124,18 @@
     <t>DONEAR</t>
   </si>
   <si>
+    <t>NETWORK18</t>
+  </si>
+  <si>
     <t>SEAMECLTD</t>
   </si>
   <si>
     <t>CELLO</t>
   </si>
   <si>
+    <t>SATIA</t>
+  </si>
+  <si>
     <t>WTICAB</t>
   </si>
   <si>
@@ -148,9 +157,21 @@
     <t>ONMOBILE</t>
   </si>
   <si>
+    <t>GRAPHITE</t>
+  </si>
+  <si>
+    <t>SAGCEM</t>
+  </si>
+  <si>
+    <t>STLTECH</t>
+  </si>
+  <si>
     <t>BODALCHEM</t>
   </si>
   <si>
+    <t>APOLLO</t>
+  </si>
+  <si>
     <t>ASTRAMICRO</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t>RAIN</t>
   </si>
   <si>
+    <t>ALKYLAMINE</t>
+  </si>
+  <si>
     <t>BPL</t>
   </si>
   <si>
@@ -226,6 +250,9 @@
     <t>NIITMTS</t>
   </si>
   <si>
+    <t>CYIENTDLM</t>
+  </si>
+  <si>
     <t>GOODLUCK</t>
   </si>
   <si>
@@ -235,6 +262,9 @@
     <t>GIPCL</t>
   </si>
   <si>
+    <t>PSPPROJECT</t>
+  </si>
+  <si>
     <t>GOCLCORP</t>
   </si>
   <si>
@@ -247,6 +277,9 @@
     <t>PNBGILTS</t>
   </si>
   <si>
+    <t>GNA</t>
+  </si>
+  <si>
     <t>ROHLTD</t>
   </si>
   <si>
@@ -292,6 +325,12 @@
     <t>THOMASCOOK</t>
   </si>
   <si>
+    <t>KTKBANK</t>
+  </si>
+  <si>
+    <t>AVTNPL</t>
+  </si>
+  <si>
     <t>FINPIPE</t>
   </si>
   <si>
@@ -301,15 +340,27 @@
     <t>REPCOHOME</t>
   </si>
   <si>
+    <t>5PAISA</t>
+  </si>
+  <si>
     <t>PRICOLLTD</t>
   </si>
   <si>
+    <t>NCLIND</t>
+  </si>
+  <si>
+    <t>AARTIDRUGS</t>
+  </si>
+  <si>
     <t>ELECON</t>
   </si>
   <si>
     <t>FACT</t>
   </si>
   <si>
+    <t>TATACOMM</t>
+  </si>
+  <si>
     <t>GICRE</t>
   </si>
   <si>
@@ -421,6 +472,9 @@
     <t xml:space="preserve">Chemicals-Basic         </t>
   </si>
   <si>
+    <t xml:space="preserve">Chemicals-Specialty     </t>
+  </si>
+  <si>
     <t xml:space="preserve">Agricultural Operations </t>
   </si>
   <si>
@@ -430,18 +484,21 @@
     <t xml:space="preserve">Apparel-Clothing Mfg    </t>
   </si>
   <si>
+    <t xml:space="preserve">Media-Diversified       </t>
+  </si>
+  <si>
     <t xml:space="preserve">Oil&amp;Gas-Field Services  </t>
   </si>
   <si>
     <t>Hsehold-Appliances/Wares</t>
   </si>
   <si>
+    <t xml:space="preserve">Paper &amp; Paper Products  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Leisure-Services        </t>
   </si>
   <si>
-    <t xml:space="preserve">Chemicals-Specialty     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Auto Manufacturers      </t>
   </si>
   <si>
@@ -454,6 +511,12 @@
     <t xml:space="preserve">Computer Sftwr-Desktop  </t>
   </si>
   <si>
+    <t xml:space="preserve">Computer-Networking     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerospace/Defense       </t>
+  </si>
+  <si>
     <t xml:space="preserve">Elec-Misc Products      </t>
   </si>
   <si>
@@ -521,6 +584,12 @@
   </si>
   <si>
     <t xml:space="preserve">Leisure-Travel Booking  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banks-Money Center      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecom Svcs-Integrated </t>
   </si>
   <si>
     <t xml:space="preserve">Insurance-Prop/Cas/Titl </t>
@@ -890,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,7 +1026,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>102</v>
@@ -987,7 +1056,7 @@
         <v>2715622</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1007,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>48</v>
@@ -1037,7 +1106,7 @@
         <v>238665</v>
       </c>
       <c r="O3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1057,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <v>60</v>
@@ -1087,7 +1156,7 @@
         <v>479664</v>
       </c>
       <c r="O4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -1107,7 +1176,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <v>159</v>
@@ -1137,7 +1206,7 @@
         <v>1753315</v>
       </c>
       <c r="O5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -1157,7 +1226,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>89</v>
@@ -1187,7 +1256,7 @@
         <v>1068991</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -1207,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>108</v>
@@ -1237,7 +1306,7 @@
         <v>129824</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -1257,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F8">
         <v>141</v>
@@ -1287,7 +1356,7 @@
         <v>225584</v>
       </c>
       <c r="O8" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -1307,7 +1376,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>48</v>
@@ -1337,7 +1406,7 @@
         <v>2299476</v>
       </c>
       <c r="O9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -1357,7 +1426,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <v>125</v>
@@ -1387,7 +1456,7 @@
         <v>88632</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1407,7 +1476,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>32</v>
@@ -1437,7 +1506,7 @@
         <v>279763</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
@@ -1457,7 +1526,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>111</v>
@@ -1487,7 +1556,7 @@
         <v>257027</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1507,7 +1576,7 @@
         <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>43</v>
@@ -1537,7 +1606,7 @@
         <v>70047</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
@@ -1557,7 +1626,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>152</v>
@@ -1587,7 +1656,7 @@
         <v>489428</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
@@ -1607,7 +1676,7 @@
         <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F15">
         <v>77</v>
@@ -1637,7 +1706,7 @@
         <v>65816</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
@@ -1657,7 +1726,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F16">
         <v>95</v>
@@ -1687,7 +1756,7 @@
         <v>10279452</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
@@ -1707,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F17">
         <v>148</v>
@@ -1737,7 +1806,7 @@
         <v>1805785</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
@@ -1751,43 +1820,43 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>917.65</v>
+        <v>100.74</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G18">
-        <v>4757.34</v>
+        <v>1379.88</v>
       </c>
       <c r="H18">
-        <v>-23.59</v>
+        <v>-21.9</v>
       </c>
       <c r="I18">
-        <v>59.13</v>
+        <v>10.66</v>
       </c>
       <c r="J18">
-        <v>-5.75</v>
+        <v>-4.86</v>
       </c>
       <c r="K18">
-        <v>5.41</v>
+        <v>-6.05</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N18">
-        <v>134153</v>
+        <v>330134</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
@@ -1801,43 +1870,43 @@
         <v>32</v>
       </c>
       <c r="C19">
-        <v>542.8</v>
+        <v>917.65</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="G19">
-        <v>8115.23</v>
+        <v>4757.34</v>
       </c>
       <c r="H19">
-        <v>-24.29</v>
+        <v>-23.59</v>
       </c>
       <c r="I19">
-        <v>22.67</v>
+        <v>59.13</v>
       </c>
       <c r="J19">
-        <v>-4.8</v>
+        <v>-5.75</v>
       </c>
       <c r="K19">
-        <v>-5.58</v>
+        <v>5.41</v>
       </c>
       <c r="L19">
         <v>26</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N19">
-        <v>253654</v>
+        <v>134153</v>
       </c>
       <c r="O19" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
@@ -1851,43 +1920,43 @@
         <v>33</v>
       </c>
       <c r="C20">
-        <v>332.9</v>
+        <v>542.8</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G20">
-        <v>42609.98</v>
+        <v>8115.23</v>
       </c>
       <c r="H20">
-        <v>-18.9</v>
+        <v>-24.29</v>
       </c>
       <c r="I20">
-        <v>14.71</v>
+        <v>22.67</v>
       </c>
       <c r="J20">
-        <v>-4.72</v>
+        <v>-4.8</v>
       </c>
       <c r="K20">
-        <v>-5.6</v>
+        <v>-5.58</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N20">
-        <v>1743172</v>
+        <v>253654</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
@@ -1901,43 +1970,43 @@
         <v>34</v>
       </c>
       <c r="C21">
-        <v>115.3</v>
+        <v>332.9</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F21">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G21">
-        <v>600.6</v>
+        <v>42609.98</v>
       </c>
       <c r="H21">
-        <v>-25.52</v>
+        <v>-18.9</v>
       </c>
       <c r="I21">
-        <v>31.18</v>
+        <v>14.71</v>
       </c>
       <c r="J21">
-        <v>-3.17</v>
+        <v>-4.72</v>
       </c>
       <c r="K21">
-        <v>-0.31</v>
+        <v>-5.6</v>
       </c>
       <c r="L21">
         <v>25</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>30260</v>
+        <v>1743172</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
@@ -1951,43 +2020,43 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>1306.9</v>
+        <v>115.3</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F22">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G22">
-        <v>3308.81</v>
+        <v>600.6</v>
       </c>
       <c r="H22">
-        <v>-21.74</v>
+        <v>-25.52</v>
       </c>
       <c r="I22">
-        <v>57.83</v>
+        <v>31.18</v>
       </c>
       <c r="J22">
-        <v>-6.94</v>
+        <v>-3.17</v>
       </c>
       <c r="K22">
-        <v>3.08</v>
+        <v>-0.31</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N22">
-        <v>29502</v>
+        <v>30260</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
@@ -2001,43 +2070,43 @@
         <v>36</v>
       </c>
       <c r="C23">
-        <v>847</v>
+        <v>82.23</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F23">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="G23">
-        <v>18791.79</v>
+        <v>12443.94</v>
       </c>
       <c r="H23">
-        <v>-17.37</v>
+        <v>-39.4</v>
       </c>
       <c r="I23">
-        <v>19.62</v>
+        <v>12.01</v>
       </c>
       <c r="J23">
-        <v>-2.62</v>
+        <v>-3.51</v>
       </c>
       <c r="K23">
-        <v>-2.78</v>
+        <v>-10.36</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23">
-        <v>97932</v>
+        <v>3563445</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
@@ -2051,43 +2120,43 @@
         <v>37</v>
       </c>
       <c r="C24">
-        <v>268</v>
+        <v>1306.9</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F24">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="G24">
-        <v>619.83</v>
+        <v>3308.81</v>
       </c>
       <c r="H24">
-        <v>-21.85</v>
+        <v>-21.74</v>
       </c>
       <c r="I24">
-        <v>67.56</v>
+        <v>57.83</v>
       </c>
       <c r="J24">
-        <v>-5.03</v>
+        <v>-6.94</v>
       </c>
       <c r="K24">
-        <v>2.71</v>
+        <v>3.08</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N24">
-        <v>59900</v>
+        <v>29502</v>
       </c>
       <c r="O24" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
@@ -2101,43 +2170,43 @@
         <v>38</v>
       </c>
       <c r="C25">
-        <v>271.5</v>
+        <v>847</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>4592.34</v>
+        <v>18791.79</v>
       </c>
       <c r="H25">
-        <v>-19.2</v>
+        <v>-17.37</v>
       </c>
       <c r="I25">
-        <v>26.24</v>
+        <v>19.62</v>
       </c>
       <c r="J25">
-        <v>-3.11</v>
+        <v>-2.62</v>
       </c>
       <c r="K25">
-        <v>-0.37</v>
+        <v>-2.78</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>544866</v>
+        <v>97932</v>
       </c>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
@@ -2151,43 +2220,43 @@
         <v>39</v>
       </c>
       <c r="C26">
-        <v>1529</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F26">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="G26">
-        <v>12820.23</v>
+        <v>1108.9</v>
       </c>
       <c r="H26">
-        <v>-31.19</v>
+        <v>-28.39</v>
       </c>
       <c r="I26">
-        <v>33.72</v>
+        <v>10.56</v>
       </c>
       <c r="J26">
-        <v>-4.89</v>
+        <v>-2.61</v>
       </c>
       <c r="K26">
-        <v>-10.33</v>
+        <v>-7.87</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N26">
-        <v>821304</v>
+        <v>290392</v>
       </c>
       <c r="O26" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
@@ -2201,43 +2270,43 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>78.73</v>
+        <v>268</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F27">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="G27">
-        <v>1602.44</v>
+        <v>619.83</v>
       </c>
       <c r="H27">
-        <v>-26.76</v>
+        <v>-21.85</v>
       </c>
       <c r="I27">
-        <v>22.19</v>
+        <v>67.56</v>
       </c>
       <c r="J27">
-        <v>-5.69</v>
+        <v>-5.03</v>
       </c>
       <c r="K27">
-        <v>-5.07</v>
+        <v>2.71</v>
       </c>
       <c r="L27">
+        <v>37</v>
+      </c>
+      <c r="M27">
         <v>35</v>
       </c>
-      <c r="M27">
-        <v>30</v>
-      </c>
       <c r="N27">
-        <v>1131379</v>
+        <v>59900</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
@@ -2251,43 +2320,43 @@
         <v>41</v>
       </c>
       <c r="C28">
-        <v>3623</v>
+        <v>271.5</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F28">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G28">
-        <v>40509.9</v>
+        <v>4592.34</v>
       </c>
       <c r="H28">
-        <v>-18.03</v>
+        <v>-19.2</v>
       </c>
       <c r="I28">
-        <v>36.72</v>
+        <v>26.24</v>
       </c>
       <c r="J28">
-        <v>-6.08</v>
+        <v>-3.11</v>
       </c>
       <c r="K28">
-        <v>1.22</v>
+        <v>-0.37</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N28">
-        <v>298874</v>
+        <v>544866</v>
       </c>
       <c r="O28" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
@@ -2301,43 +2370,43 @@
         <v>42</v>
       </c>
       <c r="C29">
-        <v>862</v>
+        <v>1529</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F29">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G29">
-        <v>2355.53</v>
+        <v>12820.23</v>
       </c>
       <c r="H29">
-        <v>-21.18</v>
+        <v>-31.19</v>
       </c>
       <c r="I29">
-        <v>108.3</v>
+        <v>33.72</v>
       </c>
       <c r="J29">
-        <v>-3.23</v>
+        <v>-4.89</v>
       </c>
       <c r="K29">
-        <v>1.62</v>
+        <v>-10.33</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>106421</v>
+        <v>821304</v>
       </c>
       <c r="O29" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
@@ -2351,43 +2420,43 @@
         <v>43</v>
       </c>
       <c r="C30">
-        <v>81.48</v>
+        <v>78.73</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G30">
-        <v>830.37</v>
+        <v>1602.44</v>
       </c>
       <c r="H30">
-        <v>-34.29</v>
+        <v>-26.76</v>
       </c>
       <c r="I30">
-        <v>31.15</v>
+        <v>22.19</v>
       </c>
       <c r="J30">
-        <v>-5.37</v>
+        <v>-5.69</v>
       </c>
       <c r="K30">
-        <v>-3.11</v>
+        <v>-5.07</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>1287682</v>
+        <v>1131379</v>
       </c>
       <c r="O30" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
@@ -2401,43 +2470,43 @@
         <v>44</v>
       </c>
       <c r="C31">
-        <v>75.55</v>
+        <v>3623</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F31">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="G31">
-        <v>955.03</v>
+        <v>40509.9</v>
       </c>
       <c r="H31">
-        <v>-25.16</v>
+        <v>-18.03</v>
       </c>
       <c r="I31">
-        <v>15.24</v>
+        <v>36.72</v>
       </c>
       <c r="J31">
-        <v>-5.77</v>
+        <v>-6.08</v>
       </c>
       <c r="K31">
-        <v>-4.52</v>
+        <v>1.22</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N31">
-        <v>785711</v>
+        <v>298874</v>
       </c>
       <c r="O31" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
@@ -2451,43 +2520,43 @@
         <v>45</v>
       </c>
       <c r="C32">
-        <v>810</v>
+        <v>862</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F32">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="G32">
-        <v>7452.71</v>
+        <v>2355.53</v>
       </c>
       <c r="H32">
-        <v>-23.51</v>
+        <v>-21.18</v>
       </c>
       <c r="I32">
-        <v>53.88</v>
+        <v>108.3</v>
       </c>
       <c r="J32">
-        <v>-6.2</v>
+        <v>-3.23</v>
       </c>
       <c r="K32">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>294350</v>
+        <v>106421</v>
       </c>
       <c r="O32" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
@@ -2501,43 +2570,43 @@
         <v>46</v>
       </c>
       <c r="C33">
-        <v>588.05</v>
+        <v>81.48</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F33">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G33">
-        <v>16540.87</v>
+        <v>830.37</v>
       </c>
       <c r="H33">
-        <v>-32.41</v>
+        <v>-34.29</v>
       </c>
       <c r="I33">
-        <v>25.61</v>
+        <v>31.15</v>
       </c>
       <c r="J33">
-        <v>-6.09</v>
+        <v>-5.37</v>
       </c>
       <c r="K33">
-        <v>-11.02</v>
+        <v>-3.11</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N33">
-        <v>630551</v>
+        <v>1287682</v>
       </c>
       <c r="O33" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
@@ -2551,43 +2620,43 @@
         <v>47</v>
       </c>
       <c r="C34">
-        <v>517.85</v>
+        <v>506.9</v>
       </c>
       <c r="D34">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F34">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G34">
-        <v>3575.75</v>
+        <v>9994.459999999999</v>
       </c>
       <c r="H34">
-        <v>-20.94</v>
+        <v>-28.55</v>
       </c>
       <c r="I34">
-        <v>62.98</v>
+        <v>10.38</v>
       </c>
       <c r="J34">
-        <v>-5.65</v>
+        <v>-6.34</v>
       </c>
       <c r="K34">
-        <v>-1.15</v>
+        <v>-10.74</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>56827</v>
+        <v>1470649</v>
       </c>
       <c r="O34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
@@ -2601,43 +2670,43 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>301.55</v>
+        <v>215.24</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G35">
-        <v>5500.2</v>
+        <v>2825.25</v>
       </c>
       <c r="H35">
-        <v>-25.34</v>
+        <v>-29.43</v>
       </c>
       <c r="I35">
-        <v>30.92</v>
+        <v>11.42</v>
       </c>
       <c r="J35">
-        <v>-6.73</v>
+        <v>-4.57</v>
       </c>
       <c r="K35">
-        <v>-1.17</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>413181</v>
+        <v>64139</v>
       </c>
       <c r="O35" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
@@ -2651,43 +2720,43 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>1169.45</v>
+        <v>121.12</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F36">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="G36">
-        <v>32072.31</v>
+        <v>5906.94</v>
       </c>
       <c r="H36">
-        <v>-18.86</v>
+        <v>-25.65</v>
       </c>
       <c r="I36">
-        <v>19.12</v>
+        <v>10.58</v>
       </c>
       <c r="J36">
-        <v>-3.89</v>
+        <v>-2.37</v>
       </c>
       <c r="K36">
-        <v>-0.7</v>
+        <v>-7.93</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>107049</v>
+        <v>2077718</v>
       </c>
       <c r="O36" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
@@ -2701,43 +2770,43 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>357.05</v>
+        <v>75.55</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F37">
         <v>67</v>
       </c>
       <c r="G37">
-        <v>2241.61</v>
+        <v>955.03</v>
       </c>
       <c r="H37">
-        <v>-21.09</v>
+        <v>-25.16</v>
       </c>
       <c r="I37">
-        <v>26.25</v>
+        <v>15.24</v>
       </c>
       <c r="J37">
-        <v>-5.64</v>
+        <v>-5.77</v>
       </c>
       <c r="K37">
-        <v>-0.25</v>
+        <v>-4.52</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>73901</v>
+        <v>785711</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
@@ -2751,43 +2820,43 @@
         <v>51</v>
       </c>
       <c r="C38">
-        <v>50.34</v>
+        <v>98.38</v>
       </c>
       <c r="D38">
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F38">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G38">
-        <v>1680.98</v>
+        <v>3011.88</v>
       </c>
       <c r="H38">
-        <v>-38.77</v>
+        <v>-39.16</v>
       </c>
       <c r="I38">
-        <v>35.22</v>
+        <v>11.68</v>
       </c>
       <c r="J38">
-        <v>-8.300000000000001</v>
+        <v>-3.72</v>
       </c>
       <c r="K38">
-        <v>-10.66</v>
+        <v>-11.18</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>596355</v>
+        <v>2115780</v>
       </c>
       <c r="O38" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
@@ -2801,43 +2870,43 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>131.3</v>
+        <v>810</v>
       </c>
       <c r="D39">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>2440.77</v>
+        <v>7452.71</v>
       </c>
       <c r="H39">
-        <v>-29.6</v>
+        <v>-23.51</v>
       </c>
       <c r="I39">
-        <v>134.06</v>
+        <v>53.88</v>
       </c>
       <c r="J39">
-        <v>-6.45</v>
+        <v>-6.2</v>
       </c>
       <c r="K39">
-        <v>12.87</v>
+        <v>1.22</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>816044</v>
+        <v>294350</v>
       </c>
       <c r="O39" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -2851,43 +2920,43 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>529</v>
+        <v>588.05</v>
       </c>
       <c r="D40">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F40">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="G40">
-        <v>7806.24</v>
+        <v>16540.87</v>
       </c>
       <c r="H40">
-        <v>-24.32</v>
+        <v>-32.41</v>
       </c>
       <c r="I40">
-        <v>40.22</v>
+        <v>25.61</v>
       </c>
       <c r="J40">
-        <v>-6.05</v>
+        <v>-6.09</v>
       </c>
       <c r="K40">
-        <v>5.6</v>
+        <v>-11.02</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>484954</v>
+        <v>630551</v>
       </c>
       <c r="O40" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
@@ -2901,43 +2970,43 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>1866.5</v>
+        <v>517.85</v>
       </c>
       <c r="D41">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F41">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G41">
-        <v>19240.41</v>
+        <v>3575.75</v>
       </c>
       <c r="H41">
-        <v>-19.89</v>
+        <v>-20.94</v>
       </c>
       <c r="I41">
-        <v>26.93</v>
+        <v>62.98</v>
       </c>
       <c r="J41">
-        <v>-4.98</v>
+        <v>-5.65</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>-1.15</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N41">
-        <v>65188</v>
+        <v>56827</v>
       </c>
       <c r="O41" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
@@ -2951,43 +3020,43 @@
         <v>55</v>
       </c>
       <c r="C42">
-        <v>243.75</v>
+        <v>301.55</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F42">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>34333.13</v>
+        <v>5500.2</v>
       </c>
       <c r="H42">
-        <v>-21.82</v>
+        <v>-25.34</v>
       </c>
       <c r="I42">
-        <v>70.76000000000001</v>
+        <v>30.92</v>
       </c>
       <c r="J42">
-        <v>-6.85</v>
+        <v>-6.73</v>
       </c>
       <c r="K42">
-        <v>-0.8</v>
+        <v>-1.17</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N42">
-        <v>2533146</v>
+        <v>413181</v>
       </c>
       <c r="O42" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
@@ -3001,43 +3070,43 @@
         <v>56</v>
       </c>
       <c r="C43">
-        <v>155.58</v>
+        <v>1169.45</v>
       </c>
       <c r="D43">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F43">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="G43">
-        <v>5211.01</v>
+        <v>32072.31</v>
       </c>
       <c r="H43">
-        <v>-29.15</v>
+        <v>-18.86</v>
       </c>
       <c r="I43">
-        <v>19.13</v>
+        <v>19.12</v>
       </c>
       <c r="J43">
-        <v>-9.07</v>
+        <v>-3.89</v>
       </c>
       <c r="K43">
-        <v>-8.94</v>
+        <v>-0.7</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>2436863</v>
+        <v>107049</v>
       </c>
       <c r="O43" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
@@ -3051,43 +3120,43 @@
         <v>57</v>
       </c>
       <c r="C44">
-        <v>108.03</v>
+        <v>357.05</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F44">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="G44">
-        <v>538.25</v>
+        <v>2241.61</v>
       </c>
       <c r="H44">
-        <v>-26.93</v>
+        <v>-21.09</v>
       </c>
       <c r="I44">
-        <v>39.03</v>
+        <v>26.25</v>
       </c>
       <c r="J44">
-        <v>-1.99</v>
+        <v>-5.64</v>
       </c>
       <c r="K44">
         <v>-0.25</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>99986</v>
+        <v>73901</v>
       </c>
       <c r="O44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -3101,43 +3170,43 @@
         <v>58</v>
       </c>
       <c r="C45">
-        <v>1120.1</v>
+        <v>50.34</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F45">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G45">
-        <v>10584.87</v>
+        <v>1680.98</v>
       </c>
       <c r="H45">
-        <v>-13.84</v>
+        <v>-38.77</v>
       </c>
       <c r="I45">
-        <v>38.17</v>
+        <v>35.22</v>
       </c>
       <c r="J45">
-        <v>-2.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="K45">
-        <v>3.56</v>
+        <v>-10.66</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N45">
-        <v>30336</v>
+        <v>596355</v>
       </c>
       <c r="O45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -3151,43 +3220,43 @@
         <v>59</v>
       </c>
       <c r="C46">
-        <v>5086.85</v>
+        <v>131.3</v>
       </c>
       <c r="D46">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F46">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="G46">
-        <v>25216.59</v>
+        <v>2440.77</v>
       </c>
       <c r="H46">
-        <v>-30.79</v>
+        <v>-29.6</v>
       </c>
       <c r="I46">
-        <v>26.74</v>
+        <v>134.06</v>
       </c>
       <c r="J46">
-        <v>-3.65</v>
+        <v>-6.45</v>
       </c>
       <c r="K46">
-        <v>-2.43</v>
+        <v>12.87</v>
       </c>
       <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
         <v>36</v>
       </c>
-      <c r="M46">
-        <v>20</v>
-      </c>
       <c r="N46">
-        <v>55713</v>
+        <v>816044</v>
       </c>
       <c r="O46" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
@@ -3201,43 +3270,43 @@
         <v>60</v>
       </c>
       <c r="C47">
-        <v>1652.6</v>
+        <v>529</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F47">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G47">
-        <v>13108.29</v>
+        <v>7806.24</v>
       </c>
       <c r="H47">
-        <v>-16.49</v>
+        <v>-24.32</v>
       </c>
       <c r="I47">
-        <v>26.73</v>
+        <v>40.22</v>
       </c>
       <c r="J47">
-        <v>-5.81</v>
+        <v>-6.05</v>
       </c>
       <c r="K47">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N47">
-        <v>221258</v>
+        <v>484954</v>
       </c>
       <c r="O47" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -3251,43 +3320,43 @@
         <v>61</v>
       </c>
       <c r="C48">
-        <v>475.65</v>
+        <v>1866.5</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="G48">
-        <v>30691.26</v>
+        <v>19240.41</v>
       </c>
       <c r="H48">
-        <v>-18.68</v>
+        <v>-19.89</v>
       </c>
       <c r="I48">
-        <v>16.74</v>
+        <v>26.93</v>
       </c>
       <c r="J48">
-        <v>-5.35</v>
+        <v>-4.98</v>
       </c>
       <c r="K48">
-        <v>-4.32</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N48">
-        <v>1698553</v>
+        <v>65188</v>
       </c>
       <c r="O48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
@@ -3301,43 +3370,43 @@
         <v>62</v>
       </c>
       <c r="C49">
-        <v>1778.7</v>
+        <v>243.75</v>
       </c>
       <c r="D49">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F49">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="G49">
-        <v>27643.56</v>
+        <v>34333.13</v>
       </c>
       <c r="H49">
-        <v>-12.38</v>
+        <v>-21.82</v>
       </c>
       <c r="I49">
-        <v>29.82</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="J49">
-        <v>-5.02</v>
+        <v>-6.85</v>
       </c>
       <c r="K49">
-        <v>-0.87</v>
+        <v>-0.8</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N49">
-        <v>209596</v>
+        <v>2533146</v>
       </c>
       <c r="O49" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
@@ -3351,43 +3420,43 @@
         <v>63</v>
       </c>
       <c r="C50">
-        <v>481.5</v>
+        <v>155.58</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F50">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="G50">
-        <v>7089.96</v>
+        <v>5211.01</v>
       </c>
       <c r="H50">
-        <v>-18.11</v>
+        <v>-29.15</v>
       </c>
       <c r="I50">
-        <v>42.14</v>
+        <v>19.13</v>
       </c>
       <c r="J50">
-        <v>-6.15</v>
+        <v>-9.07</v>
       </c>
       <c r="K50">
-        <v>0.9399999999999999</v>
+        <v>-8.94</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>331713</v>
+        <v>2436863</v>
       </c>
       <c r="O50" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
@@ -3401,43 +3470,43 @@
         <v>64</v>
       </c>
       <c r="C51">
-        <v>639.05</v>
+        <v>2016.05</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F51">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="G51">
-        <v>2203.48</v>
+        <v>10315.92</v>
       </c>
       <c r="H51">
-        <v>-31.87</v>
+        <v>-26.29</v>
       </c>
       <c r="I51">
-        <v>64.95999999999999</v>
+        <v>11.58</v>
       </c>
       <c r="J51">
-        <v>-4.81</v>
+        <v>-9.16</v>
       </c>
       <c r="K51">
-        <v>1.77</v>
+        <v>-5.94</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>50448</v>
+        <v>153800</v>
       </c>
       <c r="O51" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
@@ -3451,43 +3520,43 @@
         <v>65</v>
       </c>
       <c r="C52">
-        <v>600.55</v>
+        <v>108.03</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F52">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G52">
-        <v>8108</v>
+        <v>538.25</v>
       </c>
       <c r="H52">
-        <v>-24.27</v>
+        <v>-26.93</v>
       </c>
       <c r="I52">
-        <v>53.95</v>
+        <v>39.03</v>
       </c>
       <c r="J52">
-        <v>-5.03</v>
+        <v>-1.99</v>
       </c>
       <c r="K52">
-        <v>3.78</v>
+        <v>-0.25</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N52">
-        <v>331316</v>
+        <v>99986</v>
       </c>
       <c r="O52" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
@@ -3501,43 +3570,43 @@
         <v>66</v>
       </c>
       <c r="C53">
-        <v>565.95</v>
+        <v>1120.1</v>
       </c>
       <c r="D53">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F53">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="G53">
-        <v>3298.48</v>
+        <v>10584.87</v>
       </c>
       <c r="H53">
-        <v>-28.5</v>
+        <v>-13.84</v>
       </c>
       <c r="I53">
-        <v>24.02</v>
+        <v>38.17</v>
       </c>
       <c r="J53">
-        <v>-8.31</v>
+        <v>-2.6</v>
       </c>
       <c r="K53">
-        <v>-7.46</v>
+        <v>3.56</v>
       </c>
       <c r="L53">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>135231</v>
+        <v>30336</v>
       </c>
       <c r="O53" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
@@ -3551,43 +3620,43 @@
         <v>67</v>
       </c>
       <c r="C54">
-        <v>236.8</v>
+        <v>5086.85</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F54">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="G54">
-        <v>1157.67</v>
+        <v>25216.59</v>
       </c>
       <c r="H54">
-        <v>-38.01</v>
+        <v>-30.79</v>
       </c>
       <c r="I54">
-        <v>43.64</v>
+        <v>26.74</v>
       </c>
       <c r="J54">
-        <v>-9.220000000000001</v>
+        <v>-3.65</v>
       </c>
       <c r="K54">
-        <v>-5.3</v>
+        <v>-2.43</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>836891</v>
+        <v>55713</v>
       </c>
       <c r="O54" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
@@ -3601,43 +3670,43 @@
         <v>68</v>
       </c>
       <c r="C55">
-        <v>357.6</v>
+        <v>1652.6</v>
       </c>
       <c r="D55">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F55">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G55">
-        <v>1431.64</v>
+        <v>13108.29</v>
       </c>
       <c r="H55">
-        <v>-28.11</v>
+        <v>-16.49</v>
       </c>
       <c r="I55">
-        <v>57.68</v>
+        <v>26.73</v>
       </c>
       <c r="J55">
-        <v>-5.54</v>
+        <v>-5.81</v>
       </c>
       <c r="K55">
-        <v>6.45</v>
+        <v>1.01</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>84357</v>
+        <v>221258</v>
       </c>
       <c r="O55" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -3651,43 +3720,43 @@
         <v>69</v>
       </c>
       <c r="C56">
-        <v>454</v>
+        <v>475.65</v>
       </c>
       <c r="D56">
         <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F56">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G56">
-        <v>6099.13</v>
+        <v>30691.26</v>
       </c>
       <c r="H56">
-        <v>-21.3</v>
+        <v>-18.68</v>
       </c>
       <c r="I56">
-        <v>21.59</v>
+        <v>16.74</v>
       </c>
       <c r="J56">
-        <v>-8.140000000000001</v>
+        <v>-5.35</v>
       </c>
       <c r="K56">
-        <v>-6.33</v>
+        <v>-4.32</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N56">
-        <v>121085</v>
+        <v>1698553</v>
       </c>
       <c r="O56" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
@@ -3701,43 +3770,43 @@
         <v>70</v>
       </c>
       <c r="C57">
-        <v>1027.25</v>
+        <v>1778.7</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F57">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="G57">
-        <v>3103</v>
+        <v>27643.56</v>
       </c>
       <c r="H57">
-        <v>-22.76</v>
+        <v>-12.38</v>
       </c>
       <c r="I57">
-        <v>31.64</v>
+        <v>29.82</v>
       </c>
       <c r="J57">
-        <v>-13.63</v>
+        <v>-5.02</v>
       </c>
       <c r="K57">
-        <v>-2.59</v>
+        <v>-0.87</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>144969</v>
+        <v>209596</v>
       </c>
       <c r="O57" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
@@ -3751,43 +3820,43 @@
         <v>71</v>
       </c>
       <c r="C58">
-        <v>324.45</v>
+        <v>481.5</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F58">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="G58">
-        <v>49042.5</v>
+        <v>7089.96</v>
       </c>
       <c r="H58">
-        <v>-15.55</v>
+        <v>-18.11</v>
       </c>
       <c r="I58">
-        <v>68.18000000000001</v>
+        <v>42.14</v>
       </c>
       <c r="J58">
-        <v>-4.7</v>
+        <v>-6.15</v>
       </c>
       <c r="K58">
-        <v>2.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>3432439</v>
+        <v>331713</v>
       </c>
       <c r="O58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
@@ -3801,43 +3870,43 @@
         <v>72</v>
       </c>
       <c r="C59">
-        <v>206.99</v>
+        <v>639.05</v>
       </c>
       <c r="D59">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F59">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G59">
-        <v>3104.43</v>
+        <v>2203.48</v>
       </c>
       <c r="H59">
-        <v>-23.31</v>
+        <v>-31.87</v>
       </c>
       <c r="I59">
-        <v>41.31</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="J59">
-        <v>-8.140000000000001</v>
+        <v>-4.81</v>
       </c>
       <c r="K59">
-        <v>-2.58</v>
+        <v>1.77</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M59">
         <v>21</v>
       </c>
       <c r="N59">
-        <v>398984</v>
+        <v>50448</v>
       </c>
       <c r="O59" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
@@ -3851,43 +3920,43 @@
         <v>73</v>
       </c>
       <c r="C60">
-        <v>415</v>
+        <v>600.55</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F60">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="G60">
-        <v>1999.73</v>
+        <v>8108</v>
       </c>
       <c r="H60">
-        <v>-26.78</v>
+        <v>-24.27</v>
       </c>
       <c r="I60">
-        <v>22.24</v>
+        <v>53.95</v>
       </c>
       <c r="J60">
-        <v>-5.58</v>
+        <v>-5.03</v>
       </c>
       <c r="K60">
-        <v>-8.380000000000001</v>
+        <v>3.78</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N60">
-        <v>57280</v>
+        <v>331316</v>
       </c>
       <c r="O60" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
@@ -3901,43 +3970,43 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>372.9</v>
+        <v>565.95</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F61">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="G61">
-        <v>645.9299999999999</v>
+        <v>3298.48</v>
       </c>
       <c r="H61">
-        <v>-18.93</v>
+        <v>-28.5</v>
       </c>
       <c r="I61">
-        <v>31.33</v>
+        <v>24.02</v>
       </c>
       <c r="J61">
-        <v>-6.23</v>
+        <v>-8.31</v>
       </c>
       <c r="K61">
-        <v>-1.5</v>
+        <v>-7.46</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N61">
-        <v>55972</v>
+        <v>135231</v>
       </c>
       <c r="O61" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
@@ -3951,43 +4020,43 @@
         <v>75</v>
       </c>
       <c r="C62">
-        <v>1927.45</v>
+        <v>236.8</v>
       </c>
       <c r="D62">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F62">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="G62">
-        <v>12278.43</v>
+        <v>1157.67</v>
       </c>
       <c r="H62">
-        <v>-22.41</v>
+        <v>-38.01</v>
       </c>
       <c r="I62">
-        <v>33.99</v>
+        <v>43.64</v>
       </c>
       <c r="J62">
-        <v>-4.55</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="K62">
-        <v>3.17</v>
+        <v>-5.3</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N62">
-        <v>46030</v>
+        <v>836891</v>
       </c>
       <c r="O62" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
@@ -4001,43 +4070,43 @@
         <v>76</v>
       </c>
       <c r="C63">
-        <v>120.61</v>
+        <v>357.6</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F63">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="G63">
-        <v>2025.47</v>
+        <v>1431.64</v>
       </c>
       <c r="H63">
-        <v>-19.05</v>
+        <v>-28.11</v>
       </c>
       <c r="I63">
-        <v>25.72</v>
+        <v>57.68</v>
       </c>
       <c r="J63">
-        <v>-6.75</v>
+        <v>-5.54</v>
       </c>
       <c r="K63">
-        <v>-3.52</v>
+        <v>6.45</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>665558</v>
+        <v>84357</v>
       </c>
       <c r="O63" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
@@ -4051,43 +4120,43 @@
         <v>77</v>
       </c>
       <c r="C64">
-        <v>333.5</v>
+        <v>454</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F64">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G64">
-        <v>909.55</v>
+        <v>6099.13</v>
       </c>
       <c r="H64">
-        <v>-25.72</v>
+        <v>-21.3</v>
       </c>
       <c r="I64">
-        <v>18.09</v>
+        <v>21.59</v>
       </c>
       <c r="J64">
-        <v>-4.97</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="K64">
-        <v>-9.24</v>
+        <v>-6.33</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N64">
-        <v>72638</v>
+        <v>121085</v>
       </c>
       <c r="O64" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
@@ -4101,43 +4170,43 @@
         <v>78</v>
       </c>
       <c r="C65">
-        <v>739.85</v>
+        <v>644</v>
       </c>
       <c r="D65">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F65">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G65">
-        <v>5550.86</v>
+        <v>5156.48</v>
       </c>
       <c r="H65">
-        <v>-21.02</v>
+        <v>-27.13</v>
       </c>
       <c r="I65">
-        <v>79.65000000000001</v>
+        <v>11.99</v>
       </c>
       <c r="J65">
-        <v>-3.19</v>
+        <v>-4.41</v>
       </c>
       <c r="K65">
-        <v>0.32</v>
+        <v>-9.24</v>
       </c>
       <c r="L65">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>193076</v>
+        <v>319317</v>
       </c>
       <c r="O65" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
@@ -4151,43 +4220,43 @@
         <v>79</v>
       </c>
       <c r="C66">
-        <v>1278.25</v>
+        <v>1027.25</v>
       </c>
       <c r="D66">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F66">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G66">
-        <v>4103.38</v>
+        <v>3103</v>
       </c>
       <c r="H66">
-        <v>-18.83</v>
+        <v>-22.76</v>
       </c>
       <c r="I66">
-        <v>18.82</v>
+        <v>31.64</v>
       </c>
       <c r="J66">
-        <v>-5.11</v>
+        <v>-13.63</v>
       </c>
       <c r="K66">
-        <v>-1.1</v>
+        <v>-2.59</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N66">
-        <v>67200</v>
+        <v>144969</v>
       </c>
       <c r="O66" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
@@ -4201,43 +4270,43 @@
         <v>80</v>
       </c>
       <c r="C67">
-        <v>402.7</v>
+        <v>324.45</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F67">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="G67">
-        <v>2260.33</v>
+        <v>49042.5</v>
       </c>
       <c r="H67">
-        <v>-17.65</v>
+        <v>-15.55</v>
       </c>
       <c r="I67">
-        <v>29.79</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="J67">
-        <v>-4.09</v>
+        <v>-4.7</v>
       </c>
       <c r="K67">
-        <v>1.51</v>
+        <v>2.84</v>
       </c>
       <c r="L67">
+        <v>22</v>
+      </c>
+      <c r="M67">
         <v>32</v>
       </c>
-      <c r="M67">
-        <v>34</v>
-      </c>
       <c r="N67">
-        <v>72346</v>
+        <v>3432439</v>
       </c>
       <c r="O67" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
@@ -4251,43 +4320,43 @@
         <v>81</v>
       </c>
       <c r="C68">
-        <v>734.45</v>
+        <v>206.99</v>
       </c>
       <c r="D68">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F68">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G68">
-        <v>29347.51</v>
+        <v>3104.43</v>
       </c>
       <c r="H68">
-        <v>-20.26</v>
+        <v>-23.31</v>
       </c>
       <c r="I68">
-        <v>31.2</v>
+        <v>41.31</v>
       </c>
       <c r="J68">
-        <v>-5.59</v>
+        <v>-8.140000000000001</v>
       </c>
       <c r="K68">
-        <v>3.15</v>
+        <v>-2.58</v>
       </c>
       <c r="L68">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>469649</v>
+        <v>398984</v>
       </c>
       <c r="O68" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
@@ -4301,43 +4370,43 @@
         <v>82</v>
       </c>
       <c r="C69">
-        <v>215.52</v>
+        <v>630.8</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F69">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G69">
-        <v>1161.67</v>
+        <v>2505.97</v>
       </c>
       <c r="H69">
-        <v>-26.29</v>
+        <v>-21.83</v>
       </c>
       <c r="I69">
-        <v>17.11</v>
+        <v>11.81</v>
       </c>
       <c r="J69">
-        <v>-5.05</v>
+        <v>-2.42</v>
       </c>
       <c r="K69">
-        <v>-6.69</v>
+        <v>-6.33</v>
       </c>
       <c r="L69">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N69">
-        <v>458516</v>
+        <v>83621</v>
       </c>
       <c r="O69" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
@@ -4351,43 +4420,43 @@
         <v>83</v>
       </c>
       <c r="C70">
-        <v>4006.1</v>
+        <v>415</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F70">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="G70">
-        <v>36026.67</v>
+        <v>1999.73</v>
       </c>
       <c r="H70">
-        <v>-20.51</v>
+        <v>-26.78</v>
       </c>
       <c r="I70">
-        <v>56.66</v>
+        <v>22.24</v>
       </c>
       <c r="J70">
-        <v>-5.84</v>
+        <v>-5.58</v>
       </c>
       <c r="K70">
-        <v>-0.35</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N70">
-        <v>345224</v>
+        <v>57280</v>
       </c>
       <c r="O70" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
@@ -4401,43 +4470,43 @@
         <v>84</v>
       </c>
       <c r="C71">
-        <v>296.85</v>
+        <v>372.9</v>
       </c>
       <c r="D71">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="G71">
-        <v>31943.18</v>
+        <v>645.9299999999999</v>
       </c>
       <c r="H71">
-        <v>-18.54</v>
+        <v>-18.93</v>
       </c>
       <c r="I71">
-        <v>50.04</v>
+        <v>31.33</v>
       </c>
       <c r="J71">
-        <v>-8</v>
+        <v>-6.23</v>
       </c>
       <c r="K71">
-        <v>3.86</v>
+        <v>-1.5</v>
       </c>
       <c r="L71">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N71">
-        <v>4924094</v>
+        <v>55972</v>
       </c>
       <c r="O71" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
@@ -4451,43 +4520,43 @@
         <v>85</v>
       </c>
       <c r="C72">
-        <v>2567.5</v>
+        <v>1927.45</v>
       </c>
       <c r="D72">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F72">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="G72">
-        <v>43017.27</v>
+        <v>12278.43</v>
       </c>
       <c r="H72">
-        <v>-16.86</v>
+        <v>-22.41</v>
       </c>
       <c r="I72">
-        <v>73.56999999999999</v>
+        <v>33.99</v>
       </c>
       <c r="J72">
-        <v>-6.58</v>
+        <v>-4.55</v>
       </c>
       <c r="K72">
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N72">
-        <v>83965</v>
+        <v>46030</v>
       </c>
       <c r="O72" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
@@ -4501,43 +4570,43 @@
         <v>86</v>
       </c>
       <c r="C73">
-        <v>665.25</v>
+        <v>120.61</v>
       </c>
       <c r="D73">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F73">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="G73">
-        <v>7211.04</v>
+        <v>2025.47</v>
       </c>
       <c r="H73">
-        <v>-16.74</v>
+        <v>-19.05</v>
       </c>
       <c r="I73">
-        <v>29.33</v>
+        <v>25.72</v>
       </c>
       <c r="J73">
-        <v>-7.35</v>
+        <v>-6.75</v>
       </c>
       <c r="K73">
-        <v>0.74</v>
+        <v>-3.52</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M73">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N73">
-        <v>226289</v>
+        <v>665558</v>
       </c>
       <c r="O73" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
@@ -4551,43 +4620,43 @@
         <v>87</v>
       </c>
       <c r="C74">
-        <v>453.65</v>
+        <v>405.5</v>
       </c>
       <c r="D74">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F74">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="G74">
-        <v>650.1799999999999</v>
+        <v>1743.64</v>
       </c>
       <c r="H74">
-        <v>-32.13</v>
+        <v>-21.87</v>
       </c>
       <c r="I74">
-        <v>71.89</v>
+        <v>13.7</v>
       </c>
       <c r="J74">
-        <v>-3.16</v>
+        <v>-5.12</v>
       </c>
       <c r="K74">
-        <v>-8.69</v>
+        <v>-3.35</v>
       </c>
       <c r="L74">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N74">
-        <v>46127</v>
+        <v>97954</v>
       </c>
       <c r="O74" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
@@ -4601,43 +4670,43 @@
         <v>88</v>
       </c>
       <c r="C75">
-        <v>107.2</v>
+        <v>333.5</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F75">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G75">
-        <v>521.9</v>
+        <v>909.55</v>
       </c>
       <c r="H75">
-        <v>-18.42</v>
+        <v>-25.72</v>
       </c>
       <c r="I75">
-        <v>19.68</v>
+        <v>18.09</v>
       </c>
       <c r="J75">
-        <v>-3.17</v>
+        <v>-4.97</v>
       </c>
       <c r="K75">
-        <v>-1.35</v>
+        <v>-9.24</v>
       </c>
       <c r="L75">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M75">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>192091</v>
+        <v>72638</v>
       </c>
       <c r="O75" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -4651,43 +4720,43 @@
         <v>89</v>
       </c>
       <c r="C76">
-        <v>510.75</v>
+        <v>739.85</v>
       </c>
       <c r="D76">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F76">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G76">
-        <v>3473.33</v>
+        <v>5550.86</v>
       </c>
       <c r="H76">
-        <v>-16.26</v>
+        <v>-21.02</v>
       </c>
       <c r="I76">
-        <v>40.58</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="J76">
-        <v>-5.76</v>
+        <v>-3.19</v>
       </c>
       <c r="K76">
-        <v>4.18</v>
+        <v>0.32</v>
       </c>
       <c r="L76">
+        <v>33</v>
+      </c>
+      <c r="M76">
         <v>26</v>
       </c>
-      <c r="M76">
-        <v>33</v>
-      </c>
       <c r="N76">
-        <v>138365</v>
+        <v>193076</v>
       </c>
       <c r="O76" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
@@ -4701,43 +4770,43 @@
         <v>90</v>
       </c>
       <c r="C77">
-        <v>224.28</v>
+        <v>1278.25</v>
       </c>
       <c r="D77">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F77">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="G77">
-        <v>2993.13</v>
+        <v>4103.38</v>
       </c>
       <c r="H77">
-        <v>-29.8</v>
+        <v>-18.83</v>
       </c>
       <c r="I77">
-        <v>34.44</v>
+        <v>18.82</v>
       </c>
       <c r="J77">
-        <v>-9.33</v>
+        <v>-5.11</v>
       </c>
       <c r="K77">
-        <v>-2.6</v>
+        <v>-1.1</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M77">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N77">
-        <v>702401</v>
+        <v>67200</v>
       </c>
       <c r="O77" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
@@ -4751,43 +4820,43 @@
         <v>91</v>
       </c>
       <c r="C78">
-        <v>202</v>
+        <v>402.7</v>
       </c>
       <c r="D78">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F78">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="G78">
-        <v>9213.35</v>
+        <v>2260.33</v>
       </c>
       <c r="H78">
-        <v>-23.48</v>
+        <v>-17.65</v>
       </c>
       <c r="I78">
-        <v>45.41</v>
+        <v>29.79</v>
       </c>
       <c r="J78">
-        <v>-2.03</v>
+        <v>-4.09</v>
       </c>
       <c r="K78">
-        <v>-2.5</v>
+        <v>1.51</v>
       </c>
       <c r="L78">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N78">
-        <v>849534</v>
+        <v>72346</v>
       </c>
       <c r="O78" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
@@ -4801,43 +4870,43 @@
         <v>92</v>
       </c>
       <c r="C79">
-        <v>280.45</v>
+        <v>734.45</v>
       </c>
       <c r="D79">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F79">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="G79">
-        <v>17469.53</v>
+        <v>29347.51</v>
       </c>
       <c r="H79">
-        <v>-21.2</v>
+        <v>-20.26</v>
       </c>
       <c r="I79">
-        <v>48.18</v>
+        <v>31.2</v>
       </c>
       <c r="J79">
-        <v>-5.9</v>
+        <v>-5.59</v>
       </c>
       <c r="K79">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N79">
-        <v>1404210</v>
+        <v>469649</v>
       </c>
       <c r="O79" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
@@ -4851,43 +4920,43 @@
         <v>93</v>
       </c>
       <c r="C80">
-        <v>190.61</v>
+        <v>215.52</v>
       </c>
       <c r="D80">
         <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F80">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G80">
-        <v>7879.89</v>
+        <v>1161.67</v>
       </c>
       <c r="H80">
-        <v>-25.54</v>
+        <v>-26.29</v>
       </c>
       <c r="I80">
-        <v>26.15</v>
+        <v>17.11</v>
       </c>
       <c r="J80">
-        <v>-6.62</v>
+        <v>-5.05</v>
       </c>
       <c r="K80">
-        <v>-8.140000000000001</v>
+        <v>-6.69</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N80">
-        <v>395217</v>
+        <v>458516</v>
       </c>
       <c r="O80" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
@@ -4901,43 +4970,43 @@
         <v>94</v>
       </c>
       <c r="C81">
-        <v>479.15</v>
+        <v>4006.1</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F81">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G81">
-        <v>2977.28</v>
+        <v>36026.67</v>
       </c>
       <c r="H81">
-        <v>-19.47</v>
+        <v>-20.51</v>
       </c>
       <c r="I81">
-        <v>29.85</v>
+        <v>56.66</v>
       </c>
       <c r="J81">
-        <v>-7.25</v>
+        <v>-5.84</v>
       </c>
       <c r="K81">
-        <v>-3.05</v>
+        <v>-0.35</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N81">
-        <v>172433</v>
+        <v>345224</v>
       </c>
       <c r="O81" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
@@ -4951,43 +5020,43 @@
         <v>95</v>
       </c>
       <c r="C82">
-        <v>457.25</v>
+        <v>296.85</v>
       </c>
       <c r="D82">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F82">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>5606.53</v>
+        <v>31943.18</v>
       </c>
       <c r="H82">
-        <v>-15.71</v>
+        <v>-18.54</v>
       </c>
       <c r="I82">
-        <v>41.32</v>
+        <v>50.04</v>
       </c>
       <c r="J82">
-        <v>-2.64</v>
+        <v>-8</v>
       </c>
       <c r="K82">
-        <v>2.33</v>
+        <v>3.86</v>
       </c>
       <c r="L82">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M82">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N82">
-        <v>275653</v>
+        <v>4924094</v>
       </c>
       <c r="O82" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -5001,43 +5070,43 @@
         <v>96</v>
       </c>
       <c r="C83">
-        <v>564.15</v>
+        <v>2567.5</v>
       </c>
       <c r="D83">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F83">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="G83">
-        <v>12874.95</v>
+        <v>43017.27</v>
       </c>
       <c r="H83">
-        <v>-23.67</v>
+        <v>-16.86</v>
       </c>
       <c r="I83">
-        <v>45.2</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="J83">
-        <v>-9.1</v>
+        <v>-6.58</v>
       </c>
       <c r="K83">
-        <v>-0.58</v>
+        <v>3.66</v>
       </c>
       <c r="L83">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N83">
-        <v>750305</v>
+        <v>83965</v>
       </c>
       <c r="O83" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
@@ -5051,46 +5120,46 @@
         <v>97</v>
       </c>
       <c r="C84">
-        <v>872.5</v>
+        <v>665.25</v>
       </c>
       <c r="D84">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="F84">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="G84">
-        <v>56023.49</v>
+        <v>7211.04</v>
       </c>
       <c r="H84">
-        <v>-26.5</v>
+        <v>-16.74</v>
       </c>
       <c r="I84">
-        <v>51.21</v>
+        <v>29.33</v>
       </c>
       <c r="J84">
-        <v>-6.33</v>
+        <v>-7.35</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>0.74</v>
       </c>
       <c r="L84">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M84">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N84">
-        <v>343478</v>
+        <v>226289</v>
       </c>
       <c r="O84" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5101,46 +5170,46 @@
         <v>98</v>
       </c>
       <c r="C85">
-        <v>370.8</v>
+        <v>453.65</v>
       </c>
       <c r="D85">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F85">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="G85">
-        <v>64544.38</v>
+        <v>650.1799999999999</v>
       </c>
       <c r="H85">
-        <v>-20.74</v>
+        <v>-32.13</v>
       </c>
       <c r="I85">
-        <v>64.98</v>
+        <v>71.89</v>
       </c>
       <c r="J85">
-        <v>-4.48</v>
+        <v>-3.16</v>
       </c>
       <c r="K85">
-        <v>-2.11</v>
+        <v>-8.69</v>
       </c>
       <c r="L85">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M85">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N85">
-        <v>1150318</v>
+        <v>46127</v>
       </c>
       <c r="O85" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5151,46 +5220,46 @@
         <v>99</v>
       </c>
       <c r="C86">
-        <v>222.23</v>
+        <v>107.2</v>
       </c>
       <c r="D86">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F86">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="G86">
-        <v>65875.8</v>
+        <v>521.9</v>
       </c>
       <c r="H86">
-        <v>-16.03</v>
+        <v>-18.42</v>
       </c>
       <c r="I86">
-        <v>42.39</v>
+        <v>19.68</v>
       </c>
       <c r="J86">
-        <v>-2.11</v>
+        <v>-3.17</v>
       </c>
       <c r="K86">
-        <v>5.87</v>
+        <v>-1.35</v>
       </c>
       <c r="L86">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M86">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N86">
-        <v>9389908</v>
+        <v>192091</v>
       </c>
       <c r="O86" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5201,46 +5270,46 @@
         <v>100</v>
       </c>
       <c r="C87">
-        <v>1618.9</v>
+        <v>510.75</v>
       </c>
       <c r="D87">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E87" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F87">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="G87">
-        <v>69444.44</v>
+        <v>3473.33</v>
       </c>
       <c r="H87">
-        <v>-21.97</v>
+        <v>-16.26</v>
       </c>
       <c r="I87">
-        <v>91.93000000000001</v>
+        <v>40.58</v>
       </c>
       <c r="J87">
-        <v>-9.300000000000001</v>
+        <v>-5.76</v>
       </c>
       <c r="K87">
-        <v>2.87</v>
+        <v>4.18</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N87">
-        <v>1436734</v>
+        <v>138365</v>
       </c>
       <c r="O87" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5251,46 +5320,46 @@
         <v>101</v>
       </c>
       <c r="C88">
-        <v>597.25</v>
+        <v>224.28</v>
       </c>
       <c r="D88">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F88">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="G88">
-        <v>79901.37</v>
+        <v>2993.13</v>
       </c>
       <c r="H88">
-        <v>-17.03</v>
+        <v>-29.8</v>
       </c>
       <c r="I88">
-        <v>26.9</v>
+        <v>34.44</v>
       </c>
       <c r="J88">
-        <v>-7.85</v>
+        <v>-9.33</v>
       </c>
       <c r="K88">
-        <v>2.44</v>
+        <v>-2.6</v>
       </c>
       <c r="L88">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M88">
         <v>34</v>
       </c>
       <c r="N88">
-        <v>2623807</v>
+        <v>702401</v>
       </c>
       <c r="O88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5301,46 +5370,46 @@
         <v>102</v>
       </c>
       <c r="C89">
-        <v>904.95</v>
+        <v>202</v>
       </c>
       <c r="D89">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F89">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="G89">
-        <v>92506.67999999999</v>
+        <v>9213.35</v>
       </c>
       <c r="H89">
-        <v>-17.51</v>
+        <v>-23.48</v>
       </c>
       <c r="I89">
-        <v>43.1</v>
+        <v>45.41</v>
       </c>
       <c r="J89">
-        <v>-6.84</v>
+        <v>-2.03</v>
       </c>
       <c r="K89">
-        <v>-2.73</v>
+        <v>-2.5</v>
       </c>
       <c r="L89">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M89">
         <v>20</v>
       </c>
       <c r="N89">
-        <v>2389333</v>
+        <v>849534</v>
       </c>
       <c r="O89" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5351,46 +5420,46 @@
         <v>103</v>
       </c>
       <c r="C90">
-        <v>1907.6</v>
+        <v>213.23</v>
       </c>
       <c r="D90">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G90">
-        <v>50548.95</v>
+        <v>8019.17</v>
       </c>
       <c r="H90">
-        <v>-13.48</v>
+        <v>-25.59</v>
       </c>
       <c r="I90">
-        <v>23.58</v>
+        <v>10.59</v>
       </c>
       <c r="J90">
-        <v>-6.33</v>
+        <v>-5.23</v>
       </c>
       <c r="K90">
-        <v>-1.39</v>
+        <v>-6.86</v>
       </c>
       <c r="L90">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M90">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N90">
-        <v>274977</v>
+        <v>1802758</v>
       </c>
       <c r="O90" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5401,46 +5470,46 @@
         <v>104</v>
       </c>
       <c r="C91">
-        <v>181.63</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D91">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F91">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G91">
-        <v>52260.17</v>
+        <v>1260.15</v>
       </c>
       <c r="H91">
-        <v>-20.96</v>
+        <v>-28.32</v>
       </c>
       <c r="I91">
-        <v>30.79</v>
+        <v>11.82</v>
       </c>
       <c r="J91">
-        <v>-5.92</v>
+        <v>-4.26</v>
       </c>
       <c r="K91">
-        <v>2.87</v>
+        <v>-6.91</v>
       </c>
       <c r="L91">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M91">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N91">
-        <v>7100740</v>
+        <v>228507</v>
       </c>
       <c r="O91" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5451,46 +5520,46 @@
         <v>105</v>
       </c>
       <c r="C92">
-        <v>2762.8</v>
+        <v>280.45</v>
       </c>
       <c r="D92">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="F92">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="G92">
-        <v>53791.42</v>
+        <v>17469.53</v>
       </c>
       <c r="H92">
-        <v>-18.14</v>
+        <v>-21.2</v>
       </c>
       <c r="I92">
-        <v>26.84</v>
+        <v>48.18</v>
       </c>
       <c r="J92">
-        <v>-6.41</v>
+        <v>-5.9</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="L92">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N92">
-        <v>221166</v>
+        <v>1404210</v>
       </c>
       <c r="O92" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5501,45 +5570,895 @@
         <v>106</v>
       </c>
       <c r="C93">
+        <v>190.61</v>
+      </c>
+      <c r="D93">
+        <v>28</v>
+      </c>
+      <c r="E93" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93">
+        <v>119</v>
+      </c>
+      <c r="G93">
+        <v>7879.89</v>
+      </c>
+      <c r="H93">
+        <v>-25.54</v>
+      </c>
+      <c r="I93">
+        <v>26.15</v>
+      </c>
+      <c r="J93">
+        <v>-6.62</v>
+      </c>
+      <c r="K93">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="L93">
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <v>20</v>
+      </c>
+      <c r="N93">
+        <v>395217</v>
+      </c>
+      <c r="O93" t="s">
+        <v>163</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94">
+        <v>479.15</v>
+      </c>
+      <c r="D94">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94">
+        <v>121</v>
+      </c>
+      <c r="G94">
+        <v>2977.28</v>
+      </c>
+      <c r="H94">
+        <v>-19.47</v>
+      </c>
+      <c r="I94">
+        <v>29.85</v>
+      </c>
+      <c r="J94">
+        <v>-7.25</v>
+      </c>
+      <c r="K94">
+        <v>-3.05</v>
+      </c>
+      <c r="L94">
+        <v>28</v>
+      </c>
+      <c r="M94">
+        <v>21</v>
+      </c>
+      <c r="N94">
+        <v>172433</v>
+      </c>
+      <c r="O94" t="s">
+        <v>177</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>492.1</v>
+      </c>
+      <c r="D95">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95">
+        <v>69</v>
+      </c>
+      <c r="G95">
+        <v>1538.56</v>
+      </c>
+      <c r="H95">
+        <v>-35.12</v>
+      </c>
+      <c r="I95">
+        <v>12.6</v>
+      </c>
+      <c r="J95">
+        <v>-6.38</v>
+      </c>
+      <c r="K95">
+        <v>-6.67</v>
+      </c>
+      <c r="L95">
+        <v>36</v>
+      </c>
+      <c r="M95">
+        <v>31</v>
+      </c>
+      <c r="N95">
+        <v>161362</v>
+      </c>
+      <c r="O95" t="s">
+        <v>172</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96">
+        <v>457.25</v>
+      </c>
+      <c r="D96">
+        <v>43</v>
+      </c>
+      <c r="E96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96">
+        <v>143</v>
+      </c>
+      <c r="G96">
+        <v>5606.53</v>
+      </c>
+      <c r="H96">
+        <v>-15.71</v>
+      </c>
+      <c r="I96">
+        <v>41.32</v>
+      </c>
+      <c r="J96">
+        <v>-2.64</v>
+      </c>
+      <c r="K96">
+        <v>2.33</v>
+      </c>
+      <c r="L96">
+        <v>32</v>
+      </c>
+      <c r="M96">
+        <v>32</v>
+      </c>
+      <c r="N96">
+        <v>275653</v>
+      </c>
+      <c r="O96" t="s">
+        <v>161</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97">
+        <v>205.06</v>
+      </c>
+      <c r="D97">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97">
+        <v>119</v>
+      </c>
+      <c r="G97">
+        <v>926.1900000000001</v>
+      </c>
+      <c r="H97">
+        <v>-21.13</v>
+      </c>
+      <c r="I97">
+        <v>13.76</v>
+      </c>
+      <c r="J97">
+        <v>-3.15</v>
+      </c>
+      <c r="K97">
+        <v>-6.58</v>
+      </c>
+      <c r="L97">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>25</v>
+      </c>
+      <c r="N97">
+        <v>104917</v>
+      </c>
+      <c r="O97" t="s">
+        <v>163</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98">
+        <v>482.4</v>
+      </c>
+      <c r="D98">
+        <v>25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98">
+        <v>39</v>
+      </c>
+      <c r="G98">
+        <v>4365.9</v>
+      </c>
+      <c r="H98">
+        <v>-24.03</v>
+      </c>
+      <c r="I98">
+        <v>10.97</v>
+      </c>
+      <c r="J98">
+        <v>-6.92</v>
+      </c>
+      <c r="K98">
+        <v>-5.97</v>
+      </c>
+      <c r="L98">
+        <v>21</v>
+      </c>
+      <c r="M98">
+        <v>23</v>
+      </c>
+      <c r="N98">
+        <v>164576</v>
+      </c>
+      <c r="O98" t="s">
+        <v>179</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99">
+        <v>564.15</v>
+      </c>
+      <c r="D99">
+        <v>48</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99">
+        <v>141</v>
+      </c>
+      <c r="G99">
+        <v>12874.95</v>
+      </c>
+      <c r="H99">
+        <v>-23.67</v>
+      </c>
+      <c r="I99">
+        <v>45.2</v>
+      </c>
+      <c r="J99">
+        <v>-9.1</v>
+      </c>
+      <c r="K99">
+        <v>-0.58</v>
+      </c>
+      <c r="L99">
+        <v>27</v>
+      </c>
+      <c r="M99">
+        <v>23</v>
+      </c>
+      <c r="N99">
+        <v>750305</v>
+      </c>
+      <c r="O99" t="s">
+        <v>143</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100">
+        <v>872.5</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100">
+        <v>48</v>
+      </c>
+      <c r="G100">
+        <v>56023.49</v>
+      </c>
+      <c r="H100">
+        <v>-26.5</v>
+      </c>
+      <c r="I100">
+        <v>51.21</v>
+      </c>
+      <c r="J100">
+        <v>-6.33</v>
+      </c>
+      <c r="K100">
+        <v>2.5</v>
+      </c>
+      <c r="L100">
+        <v>26</v>
+      </c>
+      <c r="M100">
+        <v>38</v>
+      </c>
+      <c r="N100">
+        <v>343478</v>
+      </c>
+      <c r="O100" t="s">
+        <v>138</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101">
+        <v>1784.4</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101">
+        <v>140</v>
+      </c>
+      <c r="G101">
+        <v>50386.57</v>
+      </c>
+      <c r="H101">
+        <v>-17.96</v>
+      </c>
+      <c r="I101">
+        <v>11.5</v>
+      </c>
+      <c r="J101">
+        <v>-8.59</v>
+      </c>
+      <c r="K101">
+        <v>-5.49</v>
+      </c>
+      <c r="L101">
+        <v>22</v>
+      </c>
+      <c r="M101">
+        <v>25</v>
+      </c>
+      <c r="N101">
+        <v>525280</v>
+      </c>
+      <c r="O101" t="s">
+        <v>191</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102">
+        <v>370.8</v>
+      </c>
+      <c r="D102">
+        <v>54</v>
+      </c>
+      <c r="E102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F102">
+        <v>110</v>
+      </c>
+      <c r="G102">
+        <v>64544.38</v>
+      </c>
+      <c r="H102">
+        <v>-20.74</v>
+      </c>
+      <c r="I102">
+        <v>64.98</v>
+      </c>
+      <c r="J102">
+        <v>-4.48</v>
+      </c>
+      <c r="K102">
+        <v>-2.11</v>
+      </c>
+      <c r="L102">
+        <v>35</v>
+      </c>
+      <c r="M102">
+        <v>32</v>
+      </c>
+      <c r="N102">
+        <v>1150318</v>
+      </c>
+      <c r="O102" t="s">
+        <v>192</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103">
+        <v>222.23</v>
+      </c>
+      <c r="D103">
+        <v>48</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103">
+        <v>143</v>
+      </c>
+      <c r="G103">
+        <v>65875.8</v>
+      </c>
+      <c r="H103">
+        <v>-16.03</v>
+      </c>
+      <c r="I103">
+        <v>42.39</v>
+      </c>
+      <c r="J103">
+        <v>-2.11</v>
+      </c>
+      <c r="K103">
+        <v>5.87</v>
+      </c>
+      <c r="L103">
+        <v>36</v>
+      </c>
+      <c r="M103">
+        <v>34</v>
+      </c>
+      <c r="N103">
+        <v>9389908</v>
+      </c>
+      <c r="O103" t="s">
+        <v>161</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104">
+        <v>1618.9</v>
+      </c>
+      <c r="D104">
+        <v>65</v>
+      </c>
+      <c r="E104" t="s">
+        <v>128</v>
+      </c>
+      <c r="F104">
+        <v>125</v>
+      </c>
+      <c r="G104">
+        <v>69444.44</v>
+      </c>
+      <c r="H104">
+        <v>-21.97</v>
+      </c>
+      <c r="I104">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="J104">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="K104">
+        <v>2.87</v>
+      </c>
+      <c r="L104">
+        <v>21</v>
+      </c>
+      <c r="M104">
+        <v>21</v>
+      </c>
+      <c r="N104">
+        <v>1436734</v>
+      </c>
+      <c r="O104" t="s">
+        <v>144</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105">
+        <v>597.25</v>
+      </c>
+      <c r="D105">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>129</v>
+      </c>
+      <c r="F105">
+        <v>116</v>
+      </c>
+      <c r="G105">
+        <v>79901.37</v>
+      </c>
+      <c r="H105">
+        <v>-17.03</v>
+      </c>
+      <c r="I105">
+        <v>26.9</v>
+      </c>
+      <c r="J105">
+        <v>-7.85</v>
+      </c>
+      <c r="K105">
+        <v>2.44</v>
+      </c>
+      <c r="L105">
+        <v>22</v>
+      </c>
+      <c r="M105">
+        <v>34</v>
+      </c>
+      <c r="N105">
+        <v>2623807</v>
+      </c>
+      <c r="O105" t="s">
+        <v>193</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106">
+        <v>904.95</v>
+      </c>
+      <c r="D106">
+        <v>51</v>
+      </c>
+      <c r="E106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106">
+        <v>137</v>
+      </c>
+      <c r="G106">
+        <v>92506.67999999999</v>
+      </c>
+      <c r="H106">
+        <v>-17.51</v>
+      </c>
+      <c r="I106">
+        <v>43.1</v>
+      </c>
+      <c r="J106">
+        <v>-6.84</v>
+      </c>
+      <c r="K106">
+        <v>-2.73</v>
+      </c>
+      <c r="L106">
+        <v>29</v>
+      </c>
+      <c r="M106">
+        <v>20</v>
+      </c>
+      <c r="N106">
+        <v>2389333</v>
+      </c>
+      <c r="O106" t="s">
+        <v>194</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107">
+        <v>1907.6</v>
+      </c>
+      <c r="D107">
+        <v>41</v>
+      </c>
+      <c r="E107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107">
+        <v>50</v>
+      </c>
+      <c r="G107">
+        <v>50548.95</v>
+      </c>
+      <c r="H107">
+        <v>-13.48</v>
+      </c>
+      <c r="I107">
+        <v>23.58</v>
+      </c>
+      <c r="J107">
+        <v>-6.33</v>
+      </c>
+      <c r="K107">
+        <v>-1.39</v>
+      </c>
+      <c r="L107">
+        <v>29</v>
+      </c>
+      <c r="M107">
+        <v>27</v>
+      </c>
+      <c r="N107">
+        <v>274977</v>
+      </c>
+      <c r="O107" t="s">
+        <v>195</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108">
+        <v>181.63</v>
+      </c>
+      <c r="D108">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108">
+        <v>116</v>
+      </c>
+      <c r="G108">
+        <v>52260.17</v>
+      </c>
+      <c r="H108">
+        <v>-20.96</v>
+      </c>
+      <c r="I108">
+        <v>30.79</v>
+      </c>
+      <c r="J108">
+        <v>-5.92</v>
+      </c>
+      <c r="K108">
+        <v>2.87</v>
+      </c>
+      <c r="L108">
+        <v>27</v>
+      </c>
+      <c r="M108">
+        <v>38</v>
+      </c>
+      <c r="N108">
+        <v>7100740</v>
+      </c>
+      <c r="O108" t="s">
+        <v>193</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109">
+        <v>2762.8</v>
+      </c>
+      <c r="D109">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109">
+        <v>123</v>
+      </c>
+      <c r="G109">
+        <v>53791.42</v>
+      </c>
+      <c r="H109">
+        <v>-18.14</v>
+      </c>
+      <c r="I109">
+        <v>26.84</v>
+      </c>
+      <c r="J109">
+        <v>-6.41</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>26</v>
+      </c>
+      <c r="M109">
+        <v>25</v>
+      </c>
+      <c r="N109">
+        <v>221166</v>
+      </c>
+      <c r="O109" t="s">
+        <v>178</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110">
         <v>1800.8</v>
       </c>
-      <c r="D93">
+      <c r="D110">
         <v>55</v>
       </c>
-      <c r="E93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93">
+      <c r="E110" t="s">
+        <v>132</v>
+      </c>
+      <c r="F110">
         <v>121</v>
       </c>
-      <c r="G93">
+      <c r="G110">
         <v>72952.03</v>
       </c>
-      <c r="H93">
+      <c r="H110">
         <v>-13.37</v>
       </c>
-      <c r="I93">
+      <c r="I110">
         <v>44</v>
       </c>
-      <c r="J93">
+      <c r="J110">
         <v>-7.07</v>
       </c>
-      <c r="K93">
+      <c r="K110">
         <v>5.8</v>
       </c>
-      <c r="L93">
+      <c r="L110">
         <v>24</v>
       </c>
-      <c r="M93">
+      <c r="M110">
         <v>37</v>
       </c>
-      <c r="N93">
+      <c r="N110">
         <v>525838</v>
       </c>
-      <c r="O93" t="s">
-        <v>156</v>
-      </c>
-      <c r="P93" t="b">
+      <c r="O110" t="s">
+        <v>177</v>
+      </c>
+      <c r="P110" t="b">
         <v>0</v>
       </c>
     </row>
